--- a/src/main/java/com/qa/hs/keyword/scenarios/hubspot_scenario.xlsx
+++ b/src/main/java/com/qa/hs/keyword/scenarios/hubspot_scenario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pratik.gupta1\Desktop\Project Work\IDS\IDSAutomationTesting\KeywordDrivenHubSpot\src\main\java\com\qa\hs\keyword\scenarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA67504C-6360-48F8-8433-0E8885F7BDBC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D6FCB0-42F4-4E4A-9C7B-51BA10BA9B97}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1548" yWindow="1548" windowWidth="17280" windowHeight="8964" xr2:uid="{28BEECA5-4367-4C26-93A0-AC18CEA5C6D9}"/>
   </bookViews>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>test step</t>
   </si>
   <si>
-    <t>locator</t>
-  </si>
-  <si>
     <t>action</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>enter email address</t>
   </si>
   <si>
-    <t>id=username</t>
-  </si>
-  <si>
     <t>sendkeys</t>
   </si>
   <si>
@@ -84,12 +78,6 @@
     <t>click login button</t>
   </si>
   <si>
-    <t>id=loginBtn</t>
-  </si>
-  <si>
-    <t>id=password</t>
-  </si>
-  <si>
     <t>click</t>
   </si>
   <si>
@@ -97,6 +85,24 @@
   </si>
   <si>
     <t>quit</t>
+  </si>
+  <si>
+    <t>locatorType</t>
+  </si>
+  <si>
+    <t>locatorValue</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>loginBtn</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -448,110 +454,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2D9F44-90AE-43C4-887B-0C2FD166EBCB}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
+      <c r="E7" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
